--- a/mySQL_Create/projects.xlsx
+++ b/mySQL_Create/projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>Column name</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -672,18 +675,18 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
@@ -725,7 +728,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -738,11 +741,13 @@
       <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -759,7 +764,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -776,7 +781,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -793,7 +798,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -810,7 +815,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -827,7 +832,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -844,7 +849,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -861,7 +866,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -878,7 +883,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -895,7 +900,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -912,7 +917,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -929,7 +934,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -946,7 +951,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
@@ -963,7 +968,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
@@ -980,7 +985,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -997,7 +1002,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -1014,7 +1019,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
@@ -1069,7 +1074,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -1086,7 +1091,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1103,7 +1108,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -1120,7 +1125,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
@@ -1137,7 +1142,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
@@ -1173,7 +1178,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
@@ -1190,7 +1195,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>67</v>
       </c>
@@ -1200,7 +1205,7 @@
       <c r="C30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="15"/>
